--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test_AQR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test_AQR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\UAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sintesi!$O$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId4"/>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1310,51 +1310,54 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1376,6 +1379,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,18 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1439,172 +1439,18 @@
     <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="203">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFCCCCFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1613,30 +1459,119 @@
     </dxf>
     <dxf>
       <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1666,6 +1601,907 @@
       <alignment horizontal="center" vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2285,6 +3121,11 @@
     </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2348,68 +3189,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42726.432957060184" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="34">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-27T00:00:00" maxDate="2016-10-29T00:00:00"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Ko"/>
-        <s v="ok"/>
-        <s v="Non verificato"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Incorenza stati" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Non coerente"/>
-        <s v="Coerente"/>
-        <s v="Non applicabile"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42726.43295775463" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42744.660268402775" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -2418,7 +3198,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2448,7 +3228,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-27T00:00:00" maxDate="2016-10-29T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-28T00:00:00" maxDate="2016-12-23T00:00:00"/>
     </cacheField>
     <cacheField name="Verifica DSI" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2462,748 +3242,535 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42744.660271527777" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="21">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-28T00:00:00" maxDate="2016-12-23T00:00:00"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Non verificato"/>
+        <m/>
+        <s v="ok" u="1"/>
+        <s v="Ko" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Incorenza stati" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Non applicabile"/>
+        <m/>
+        <s v="Non coerente" u="1"/>
+        <s v="Coerente" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
   <r>
     <m/>
     <n v="1"/>
     <m/>
     <m/>
-    <s v="Indicatore 37 - Delta patrimonio netto"/>
-    <s v="L'obiettivo dell'indicatore è fornire la variazione relativa del patrimonio netto all'anno t rispetto all'anno precedente. Si calcola facendo il rapporto tra la variazione annuale di patrimonio netto (TOT_EQUITY_1 - TOT_EQUITY_2) e il valore assoluto del patrimonio netto al tempo t-1 (TOT_EQUITY_2)_x000a_"/>
-    <s v=" - rapporto_x000a__x000a_ - ERRORE - consideratI I seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN=0 e NUM&gt;0 -&gt; valore convenzionale (1000000)_x000a_3 -  DEN=0 e NUM=0 -&gt;valore convenzionale  (0)_x000a_4 - DEN=0 e NUM&lt; 0 -&gt; (-1000000)"/>
-    <s v="1 - missing/missing -&gt; CORRETTO  _x000a_2 - DEN=0 e NUM&gt;0 -&gt;  NESSUN CASO_x000a_3 -  DEN=0 e NUM=0 -&gt;CORRETTO_x000a_4 - DEN=0 e NUM&lt; 0 -&gt;CORRETTO"/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
+    <s v="Indicator 221 - Past due public creditors / employees"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <s v="Non verificato"/>
   </r>
   <r>
     <m/>
     <n v="2"/>
     <m/>
     <m/>
-    <s v="Indicatore 38 - Delta utile lordo"/>
-    <s v="L'obiettivo dell'indicatore è fornire la variazione relativa dell'utile lordo all'anno t rispetto all'anno precedente. Si calcola facendo il rapporto tra la variazione annuale di utile lordo (PRE_TAX_PROFIT_1 - PRE_TAX_PROFIT_2) e il valore assoluto dell'utile lordo al tempo t-1 (PRE_TAX_PROFIT_2)_x000a__x000a_ERRORE - consideratI I seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN=0 e NUM&gt;0 -&gt; valore convenzionale (1000000)_x000a_3 -  DEN=0 e NUM=0 -&gt;valore convenzionale  (0)_x000a_4 - DEN=0 e NUM&lt; 0 -&gt; (-1000000)"/>
-    <s v=" - rapporto_x000a__x000a_ - ERRORE - consideratI I seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN=0 e NUM&gt;0 -&gt; valore convenzionale (1000000)_x000a_3 -  DEN=0 e NUM=0 -&gt;valore convenzionale  (0)_x000a_4 - DEN=0 e NUM&lt; 0 -&gt; (-1000000)"/>
-    <s v="1 - missing/missing -&gt; CORRETTO  _x000a_2 - DEN=0 e NUM&gt;0 -&gt;  NESSUN CASO_x000a_3 -  DEN=0 e NUM=0 -&gt;CORRETTO_x000a_4 - DEN=0 e NUM&lt; 0 -&gt;CORRETTO"/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="Indicator 222 - Collateral Value Decrease"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
   </r>
   <r>
     <m/>
     <n v="3"/>
     <m/>
     <m/>
-    <s v="Indicatore 39 - Leverage patrimonio tangibile"/>
-    <s v="Per il singolo SNDG viene riportato il valore del rapporto tra Patrimonio netto tangibile (patrimonio netto sottratti gli assets non tangibili) ed il Totale attivo tangibile (utile lordo sottratti gli assets non tangibili)_x000a__x000a_ERRORE - considerati i seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN &lt;= 0 -&gt; missing"/>
-    <s v=" - rapporto_x000a__x000a_ - ERRORE - considerati i seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN &lt;= 0 -&gt; missing"/>
-    <s v="1 - missing/missing -&gt; CORRETTO  _x000a_2 - DEN &lt;=0  -&gt;  NESSUN CASO"/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
+    <s v="Indicator 223 - Delta Cashflow"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
   </r>
   <r>
     <m/>
     <n v="4"/>
     <m/>
     <m/>
-    <s v="Indicatore 40 - Patrimonio netto tempo t"/>
-    <s v="Per il singolo SNDG viene riportato il valore del Patrimonio netto all'ultima data disponibile (ultimo anno)"/>
+    <s v="Indicator 224 - Covenant Breach"/>
+    <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
     <m/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
   </r>
   <r>
     <m/>
     <n v="5"/>
     <m/>
     <m/>
-    <s v="Indicatore 41 - Utile lordo tempo t"/>
-    <s v="Per il singolo SNDG viene riportato l'utile lordo all'ultima data disponibile (ultimo anno)_x000a_"/>
+    <s v="Indicator 225 - Bond Trade Suspended"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
     <m/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
   </r>
   <r>
     <m/>
-    <n v="6"/>
-    <m/>
-    <m/>
-    <s v="Indicatore 42 - Rating interno"/>
-    <s v="Per il singolo SNDG viene riportato il codice relativo al suo rating interno relativo all'ultima data disponibile "/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
-    <n v="7"/>
-    <m/>
-    <m/>
-    <s v="Indicatore 43 - Rating Fitch"/>
-    <s v="Per il singolo SNDG viene riportato il codice relativo al rating espresso dalla società di rating Fitch espresso in valore numerico su una scala da 1 a 20 (dove 1 corrisponde a AAA e 20 Default) relativo all'ultima data disponibile "/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <s v="Ok"/>
-    <d v="2016-10-27T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <s v="BR15"/>
+    <s v="ind_221 = 1"/>
+    <s v="accensione della BR 15"/>
+    <s v="SNDG:_x000a_0000000090890463_x000a_0000000078356193_x000a_0000000078424764_x000a_0000000078276761_x000a_0000000091605514_x000a_0000000078375153_x000a_0000000078400570"/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
   </r>
   <r>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR132"/>
-    <s v="ind_42='R5' and ind_41 &gt; 0 and ind_38 &lt; -0.5"/>
-    <s v="accensione della BR 132 "/>
-    <s v="in esame SNDG = 27905589"/>
-    <s v="Ok"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <s v="BR16"/>
+    <s v="ind_225 = 1"/>
+    <s v="accensione della BR 16"/>
+    <m/>
+    <x v="0"/>
     <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
   </r>
   <r>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR133"/>
-    <s v="IND_42 = 'R5' AND IND_41 &lt; 0 AND IND_38 &lt; 0"/>
-    <s v="accensione della BR 133"/>
-    <s v="in esame SNDG = 48331757"/>
-    <s v="Ok"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <s v="ECCEZIONE_1"/>
+    <s v="BR15 = 1 or BR16 = 1"/>
+    <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
+    <m/>
+    <x v="0"/>
     <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR134"/>
-    <s v="IND_42 = 'R5' AND IND_40 &gt; 0 AND IND_37 &lt; -0.5"/>
-    <s v="accensione della BR 134"/>
-    <s v="in esame SNDG = 49981143"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR135"/>
-    <s v="IND_42 = 'R5' AND IND_40 &lt; 0"/>
-    <s v="accensione della BR 135"/>
-    <s v="in esame SNDG = 66691328"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR136"/>
-    <s v="IND_42 = 'R5' AND IND_39 &lt; 0.03"/>
-    <s v="accensione della BR 136"/>
-    <s v="in esame SNDG = 67537222"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR137"/>
-    <s v="IND_42 in ('R3','R4', 'R5') AND IND_43 =&lt; 11 AND IND_41 &gt; 0 AND IND_38 &lt; -0.3"/>
-    <s v="accensione della BR 137"/>
-    <s v="in esame SNDG = 17777292"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR138"/>
-    <s v="IND_42 in ('R3','R4', 'R5') AND IND_43 =&lt; 11 AND IND_40 &gt; 0 AND IND_37 &lt; -0.3"/>
-    <s v="accensione della BR 138"/>
-    <s v="nessun caso"/>
-    <m/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR139"/>
-    <s v="IND_42 in ('R3','R4', 'R5') AND IND_43 =&lt; 11 AND IND_39 &lt; 0.05"/>
-    <s v="accensione della BR 139"/>
-    <s v="nessun caso"/>
-    <m/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR140"/>
-    <s v="IND_42 in ('R4', 'R5') AND IND_43 &gt;= 13 AND IND_41 &gt; 0 AND IND_38 &lt; -0.3"/>
-    <s v="accensione della BR 140"/>
-    <s v="in esame SNDG = 48220204"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR141"/>
-    <s v="IND_42 in ('R4', 'R5') AND IND_43 &gt;= 13 AND IND_40 &gt; 0 AND IND_37 &lt; -0.3"/>
-    <s v="accensione della BR 141"/>
-    <s v="in esame SNDG = 48220204"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR142"/>
-    <s v="IND_42 in ('R4', 'R5') AND IND_43 &gt;= 13 AND IND_39 &lt; 0.05"/>
-    <s v="accensione della BR 142"/>
-    <s v="in esame SNDG = 18006613"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR143"/>
-    <s v="IND_214 &gt; 30 AND IND_215 &gt;= 50.000"/>
-    <s v="accensione della BR 143"/>
-    <s v="in esame SNDG = 68603665"/>
-    <s v="Ok"/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR543"/>
-    <s v="IND_214 &gt; 30 AND IND_215 &lt; 50.000"/>
-    <s v="accensione della BR 543"/>
-    <s v="nessun caso"/>
-    <m/>
-    <d v="2016-10-28T00:00:00"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
   <r>
     <m/>
     <n v="1"/>
     <m/>
     <m/>
-    <s v="Indicatore 37 - Delta patrimonio netto"/>
-    <s v="L'obiettivo dell'indicatore è fornire la variazione relativa del patrimonio netto all'anno t rispetto all'anno precedente. Si calcola facendo il rapporto tra la variazione annuale di patrimonio netto (TOT_EQUITY_1 - TOT_EQUITY_2) e il valore assoluto del patrimonio netto al tempo t-1 (TOT_EQUITY_2)_x000a_"/>
-    <s v=" - rapporto_x000a__x000a_ - ERRORE - consideratI I seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN=0 e NUM&gt;0 -&gt; valore convenzionale (1000000)_x000a_3 -  DEN=0 e NUM=0 -&gt;valore convenzionale  (0)_x000a_4 - DEN=0 e NUM&lt; 0 -&gt; (-1000000)"/>
-    <s v="1 - missing/missing -&gt; CORRETTO  _x000a_2 - DEN=0 e NUM&gt;0 -&gt;  NESSUN CASO_x000a_3 -  DEN=0 e NUM=0 -&gt;CORRETTO_x000a_4 - DEN=0 e NUM&lt; 0 -&gt;CORRETTO"/>
+    <s v="Indicator 221 - Past due public creditors / employees"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <s v="Ok"/>
+    <d v="2016-12-22T00:00:00"/>
     <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <s v="Ko"/>
+    <x v="0"/>
   </r>
   <r>
     <m/>
     <n v="2"/>
     <m/>
     <m/>
-    <s v="Indicatore 38 - Delta utile lordo"/>
-    <s v="L'obiettivo dell'indicatore è fornire la variazione relativa dell'utile lordo all'anno t rispetto all'anno precedente. Si calcola facendo il rapporto tra la variazione annuale di utile lordo (PRE_TAX_PROFIT_1 - PRE_TAX_PROFIT_2) e il valore assoluto dell'utile lordo al tempo t-1 (PRE_TAX_PROFIT_2)_x000a__x000a_ERRORE - consideratI I seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN=0 e NUM&gt;0 -&gt; valore convenzionale (1000000)_x000a_3 -  DEN=0 e NUM=0 -&gt;valore convenzionale  (0)_x000a_4 - DEN=0 e NUM&lt; 0 -&gt; (-1000000)"/>
-    <s v=" - rapporto_x000a__x000a_ - ERRORE - consideratI I seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN=0 e NUM&gt;0 -&gt; valore convenzionale (1000000)_x000a_3 -  DEN=0 e NUM=0 -&gt;valore convenzionale  (0)_x000a_4 - DEN=0 e NUM&lt; 0 -&gt; (-1000000)"/>
-    <s v="1 - missing/missing -&gt; CORRETTO  _x000a_2 - DEN=0 e NUM&gt;0 -&gt;  NESSUN CASO_x000a_3 -  DEN=0 e NUM=0 -&gt;CORRETTO_x000a_4 - DEN=0 e NUM&lt; 0 -&gt;CORRETTO"/>
-    <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <s v="ok"/>
+    <s v="Indicator 222 - Collateral Value Decrease"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <s v="Ok"/>
+    <d v="2016-12-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <n v="3"/>
     <m/>
     <m/>
-    <s v="Indicatore 39 - Leverage patrimonio tangibile"/>
-    <s v="Per il singolo SNDG viene riportato il valore del rapporto tra Patrimonio netto tangibile (patrimonio netto sottratti gli assets non tangibili) ed il Totale attivo tangibile (utile lordo sottratti gli assets non tangibili)_x000a__x000a_ERRORE - considerati i seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN &lt;= 0 -&gt; missing"/>
-    <s v=" - rapporto_x000a__x000a_ - ERRORE - considerati i seguendi casi:_x000a_1  - missing/missing -&gt; missing  _x000a_2 - DEN &lt;= 0 -&gt; missing"/>
-    <s v="1 - missing/missing -&gt; CORRETTO  _x000a_2 - DEN &lt;=0  -&gt;  NESSUN CASO"/>
-    <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <s v="Ko"/>
+    <s v="Indicator 223 - Delta Cashflow"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <s v="Ok"/>
+    <d v="2016-12-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <n v="4"/>
     <m/>
     <m/>
-    <s v="Indicatore 40 - Patrimonio netto tempo t"/>
-    <s v="Per il singolo SNDG viene riportato il valore del Patrimonio netto all'ultima data disponibile (ultimo anno)"/>
+    <s v="Indicator 224 - Covenant Breach"/>
+    <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
     <m/>
-    <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <s v="Non verificato"/>
+    <s v="Ok"/>
+    <d v="2016-12-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <n v="5"/>
     <m/>
     <m/>
-    <s v="Indicatore 41 - Utile lordo tempo t"/>
-    <s v="Per il singolo SNDG viene riportato l'utile lordo all'ultima data disponibile (ultimo anno)_x000a_"/>
+    <s v="Indicator 225 - Bond Trade Suspended"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
     <m/>
-    <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <m/>
+    <s v="Ok"/>
+    <d v="2016-12-22T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
-    <n v="6"/>
-    <m/>
-    <m/>
-    <s v="Indicatore 42 - Rating interno"/>
-    <s v="Per il singolo SNDG viene riportato il codice relativo al suo rating interno relativo all'ultima data disponibile "/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
-    <n v="7"/>
-    <m/>
-    <m/>
-    <s v="Indicatore 43 - Rating Fitch"/>
-    <s v="Per il singolo SNDG viene riportato il codice relativo al rating espresso dalla società di rating Fitch espresso in valore numerico su una scala da 1 a 20 (dove 1 corrisponde a AAA e 20 Default) relativo all'ultima data disponibile "/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-10-27T00:00:00"/>
-    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <s v="BR15"/>
+    <s v="ind_221 = 1"/>
+    <s v="accensione della BR 15"/>
+    <s v="SNDG:_x000a_0000000090890463_x000a_0000000078356193_x000a_0000000078424764_x000a_0000000078276761_x000a_0000000091605514_x000a_0000000078375153_x000a_0000000078400570"/>
+    <s v="Ok"/>
+    <d v="2016-10-28T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR132"/>
-    <s v="ind_42='R5' and ind_41 &gt; 0 and ind_38 &lt; -0.5"/>
-    <s v="accensione della BR 132 "/>
-    <s v="in esame SNDG = 27905589"/>
-    <x v="0"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <s v="BR16"/>
+    <s v="ind_225 = 1"/>
+    <s v="accensione della BR 16"/>
+    <m/>
+    <s v="Ok"/>
     <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="BR133"/>
-    <s v="IND_42 = 'R5' AND IND_41 &lt; 0 AND IND_38 &lt; 0"/>
-    <s v="accensione della BR 133"/>
-    <s v="in esame SNDG = 48331757"/>
-    <x v="0"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <s v="ECCEZIONE_1"/>
+    <s v="BR15 = 1 or BR16 = 1"/>
+    <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
+    <m/>
+    <s v="Ok"/>
     <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR134"/>
-    <s v="IND_42 = 'R5' AND IND_40 &gt; 0 AND IND_37 &lt; -0.5"/>
-    <s v="accensione della BR 134"/>
-    <s v="in esame SNDG = 49981143"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR135"/>
-    <s v="IND_42 = 'R5' AND IND_40 &lt; 0"/>
-    <s v="accensione della BR 135"/>
-    <s v="in esame SNDG = 66691328"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR136"/>
-    <s v="IND_42 = 'R5' AND IND_39 &lt; 0.03"/>
-    <s v="accensione della BR 136"/>
-    <s v="in esame SNDG = 67537222"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR137"/>
-    <s v="IND_42 in ('R3','R4', 'R5') AND IND_43 =&lt; 11 AND IND_41 &gt; 0 AND IND_38 &lt; -0.3"/>
-    <s v="accensione della BR 137"/>
-    <s v="in esame SNDG = 17777292"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR138"/>
-    <s v="IND_42 in ('R3','R4', 'R5') AND IND_43 =&lt; 11 AND IND_40 &gt; 0 AND IND_37 &lt; -0.3"/>
-    <s v="accensione della BR 138"/>
-    <s v="nessun caso"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <x v="1"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR139"/>
-    <s v="IND_42 in ('R3','R4', 'R5') AND IND_43 =&lt; 11 AND IND_39 &lt; 0.05"/>
-    <s v="accensione della BR 139"/>
-    <s v="nessun caso"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <x v="1"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR140"/>
-    <s v="IND_42 in ('R4', 'R5') AND IND_43 &gt;= 13 AND IND_41 &gt; 0 AND IND_38 &lt; -0.3"/>
-    <s v="accensione della BR 140"/>
-    <s v="in esame SNDG = 48220204"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR141"/>
-    <s v="IND_42 in ('R4', 'R5') AND IND_43 &gt;= 13 AND IND_40 &gt; 0 AND IND_37 &lt; -0.3"/>
-    <s v="accensione della BR 141"/>
-    <s v="in esame SNDG = 48220204"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR142"/>
-    <s v="IND_42 in ('R4', 'R5') AND IND_43 &gt;= 13 AND IND_39 &lt; 0.05"/>
-    <s v="accensione della BR 142"/>
-    <s v="in esame SNDG = 18006613"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR143"/>
-    <s v="IND_214 &gt; 30 AND IND_215 &gt;= 50.000"/>
-    <s v="accensione della BR 143"/>
-    <s v="in esame SNDG = 68603665"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <s v="BR543"/>
-    <s v="IND_214 &gt; 30 AND IND_215 &lt; 50.000"/>
-    <s v="accensione della BR 543"/>
-    <s v="nessun caso"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <x v="1"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
@@ -3214,132 +3781,16 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3354,10 +3805,10 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow">
       <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
         <item x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3387,107 +3838,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="29">
+    <format dxfId="129">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="128">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="127">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="126">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="121">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="119">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="114">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="112">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="107">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="105">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3501,7 +3952,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3517,10 +3968,10 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow">
       <items count="5">
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
+        <item m="1" x="3"/>
+        <item h="1" x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3546,96 +3997,96 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="57">
+    <format dxfId="157">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="156">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="155">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="154">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="153">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="152">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="147">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="146">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="143">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="140">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="137">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="132">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3649,7 +4100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -3694,160 +4145,160 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="101">
+    <format dxfId="201">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="200">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="199">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="198">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="197">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="196">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="194">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="193">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="190">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="185">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="184">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="183">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="180">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="179">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="178">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="177">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="176">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="173">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="171">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="170">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="169">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="164">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="163">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="162">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4507,80 +4958,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="82"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -4706,161 +5157,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77" t="s">
+      <c r="C37" s="75"/>
+      <c r="D37" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77" t="s">
+      <c r="C39" s="75"/>
+      <c r="D39" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
+      <c r="C40" s="75"/>
+      <c r="D40" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77" t="s">
+      <c r="C41" s="75"/>
+      <c r="D41" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="81" t="s">
+      <c r="C42" s="75"/>
+      <c r="D42" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="87"/>
+      <c r="F42" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77" t="s">
+      <c r="G42" s="76"/>
+      <c r="H42" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77" t="s">
+      <c r="C43" s="75"/>
+      <c r="D43" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="78">
+      <c r="C44" s="75"/>
+      <c r="D44" s="90">
         <v>42506</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="77" t="s">
+      <c r="E44" s="91"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="78">
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="90">
         <v>42506</v>
       </c>
-      <c r="K44" s="80"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -4911,35 +5362,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -4990,25 +5441,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -5017,6 +5449,25 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5028,8 +5479,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,38 +5503,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -5288,13 +5739,13 @@
       <c r="E10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="74" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="99" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -5316,13 +5767,13 @@
       <c r="E11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="74" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="116"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="13" t="s">
         <v>37</v>
       </c>
@@ -5348,7 +5799,7 @@
       <c r="G12" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="13" t="s">
         <v>37</v>
       </c>
@@ -5465,40 +5916,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="G1" s="104" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="G1" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
@@ -5540,16 +5991,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="24"/>
       <c r="G5" s="26"/>
       <c r="H5" s="53">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="54">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -5567,9 +6018,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="24"/>
       <c r="G6" s="26"/>
       <c r="H6" s="48"/>
@@ -5615,17 +6066,17 @@
       </c>
       <c r="E8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="98" t="s">
+      <c r="L8" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5634,7 +6085,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="35">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -5642,13 +6093,13 @@
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5657,7 +6108,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="24"/>
@@ -5698,18 +6149,16 @@
       </c>
       <c r="J11" s="35">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Non verificato")/GETPIVOTDATA("ID",$H$10)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="41">
-        <v>1</v>
-      </c>
-      <c r="N11" s="35">
+      <c r="M11" s="41"/>
+      <c r="N11" s="35" t="e">
         <f>GETPIVOTDATA("ID",$L$10,"Incorenza stati","Coerente")/GETPIVOTDATA("ID",$L$10)</f>
-        <v>0.33333333333333331</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O11" s="24"/>
     </row>
@@ -5723,23 +6172,19 @@
       <c r="H12" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="41">
-        <v>1</v>
-      </c>
+      <c r="I12" s="41"/>
       <c r="J12" s="35">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Ok")/GETPIVOTDATA("ID",$H$10)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="41">
-        <v>2</v>
-      </c>
-      <c r="N12" s="35">
+      <c r="M12" s="41"/>
+      <c r="N12" s="35" t="e">
         <f>GETPIVOTDATA("ID",$L$10,"Incorenza stati","Non coerente")/GETPIVOTDATA("ID",$L$10)</f>
-        <v>0.66666666666666663</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O12" s="24"/>
     </row>
@@ -5753,20 +6198,16 @@
       <c r="H13" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="41">
-        <v>2</v>
-      </c>
+      <c r="I13" s="41"/>
       <c r="J13" s="35">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Ko")/GETPIVOTDATA("ID",$H$10)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="42">
-        <v>3</v>
-      </c>
+      <c r="M13" s="42"/>
       <c r="N13" s="32"/>
       <c r="O13" s="24"/>
     </row>
@@ -5781,7 +6222,7 @@
         <v>57</v>
       </c>
       <c r="I14" s="42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
@@ -6035,7 +6476,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6045,21 +6486,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -6173,17 +6599,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6197,17 +6639,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test_AQR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test_AQR.xlsx
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -163,20 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eventuali informazioni relative a dati di input e precondizioni necessarie per l'esecuzione del test, dettagli sugli esiti e varie</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Applicazione</t>
   </si>
@@ -339,9 +326,6 @@
   </si>
   <si>
     <t>MdC_PRJXXXXXX_Step_001</t>
-  </si>
-  <si>
-    <t>Note fornitore</t>
   </si>
   <si>
     <t>Data consegna</t>
@@ -511,14 +495,80 @@
     <t>ind_221 = 1</t>
   </si>
   <si>
-    <t>SNDG:
-0000000090890463
-0000000078356193
-0000000078424764
-0000000078276761
-0000000091605514
-0000000078375153
-0000000078400570</t>
+    <t>SNDG - segment CORPORATE</t>
+  </si>
+  <si>
+    <t>SNDG - segment RETAIL</t>
+  </si>
+  <si>
+    <t>78276761
+90890463
+91605514
+78375153
+78356193</t>
+  </si>
+  <si>
+    <t>86511100
+78297134</t>
+  </si>
+  <si>
+    <t>78276761
+90890463
+91605514
+78375153
+78424764
+83713674</t>
+  </si>
+  <si>
+    <t>78276761
+78400570
+90890463
+91605514
+78375153
+78424764</t>
+  </si>
+  <si>
+    <t>78234149
+78301578</t>
+  </si>
+  <si>
+    <t>78400570
+90890463
+91605514
+78375153
+78356193
+78424764
+78426070</t>
+  </si>
+  <si>
+    <t>78276761
+78400570
+91605514
+78375153
+78424764</t>
+  </si>
+  <si>
+    <t>87986803
+78300922
+78356868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+87986803
+86511100
+78300922
+78297134
+78356868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+90890463
+78356193
+78424764
+78276761
+91605514
+78375153
+78400570</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1177,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1298,9 +1348,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1312,52 +1359,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,15 +1426,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1431,6 +1469,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1441,6 +1503,499 @@
   </cellStyles>
   <dxfs count="203">
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1794,10 +2349,74 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1816,64 +2435,212 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1988,116 +2755,64 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -2116,170 +2831,10 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2633,499 +3188,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3189,63 +3251,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42744.660268402775" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42747.669578240741" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="Ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-28T00:00:00" maxDate="2016-12-23T00:00:00"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42744.660271527777" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="21">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
+    <worksheetSource ref="A3:M1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Applicazione" numFmtId="0">
@@ -3303,194 +3311,61 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
-  <r>
-    <m/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <s v="Indicator 221 - Past due public creditors / employees"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <s v="Non verificato"/>
-  </r>
-  <r>
-    <m/>
-    <n v="2"/>
-    <m/>
-    <m/>
-    <s v="Indicator 222 - Collateral Value Decrease"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="3"/>
-    <m/>
-    <m/>
-    <s v="Indicator 223 - Delta Cashflow"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <s v="Indicator 224 - Covenant Breach"/>
-    <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <s v="Indicator 225 - Bond Trade Suspended"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="6"/>
-    <m/>
-    <m/>
-    <s v="BR15"/>
-    <s v="ind_221 = 1"/>
-    <s v="accensione della BR 15"/>
-    <s v="SNDG:_x000a_0000000090890463_x000a_0000000078356193_x000a_0000000078424764_x000a_0000000078276761_x000a_0000000091605514_x000a_0000000078375153_x000a_0000000078400570"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="7"/>
-    <m/>
-    <m/>
-    <s v="BR16"/>
-    <s v="ind_225 = 1"/>
-    <s v="accensione della BR 16"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="8"/>
-    <m/>
-    <m/>
-    <s v="ECCEZIONE_1"/>
-    <s v="BR15 = 1 or BR16 = 1"/>
-    <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42747.669579861111" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="Ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-28T00:00:00" maxDate="2016-12-23T00:00:00"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
   <r>
     <m/>
@@ -3789,8 +3664,407 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+  <r>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="Indicator 221 - Past due public creditors / employees"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <s v="Non verificato"/>
+  </r>
+  <r>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <s v="Indicator 222 - Collateral Value Decrease"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <s v="Indicator 223 - Delta Cashflow"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <s v="Indicator 224 - Covenant Breach"/>
+    <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <s v="Indicator 225 - Bond Trade Suspended"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <s v="BR15"/>
+    <s v="ind_221 = 1"/>
+    <s v="accensione della BR 15"/>
+    <s v="SNDG:_x000a_0000000090890463_x000a_0000000078356193_x000a_0000000078424764_x000a_0000000078276761_x000a_0000000091605514_x000a_0000000078375153_x000a_0000000078400570"/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <s v="BR16"/>
+    <s v="ind_225 = 1"/>
+    <s v="accensione della BR 16"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <s v="ECCEZIONE_1"/>
+    <s v="BR15 = 1 or BR16 = 1"/>
+    <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+  <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="6">
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="44">
+    <format dxfId="145">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="144">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="143">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="142">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="141">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="140">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="139">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="138">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="137">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="136">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="135">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="134">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="132">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="131">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="130">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="129">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="128">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="127">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="126">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="124">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="123">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="121">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="120">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="119">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="117">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="113">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3838,107 +4112,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="129">
+    <format dxfId="174">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="173">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="172">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="171">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="170">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="166">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="165">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="164">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="159">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="158">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="157">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="152">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="151">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="150">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3951,8 +4225,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3997,308 +4271,96 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="157">
+    <format dxfId="202">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="201">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="200">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="199">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="198">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="197">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="194">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="192">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="191">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="190">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="188">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="185">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="182">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="179">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="178">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="177">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
-  <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="6">
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="44">
-    <format dxfId="201">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="200">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="199">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="198">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="197">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="196">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="195">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="194">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="193">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="192">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="191">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="190">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="189">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="188">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="187">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="186">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="185">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="184">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="183">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="182">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="181">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="180">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="179">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="178">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="177">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="176">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="175">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="174">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="173">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="172">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="171">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="170">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="169">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="168">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="167">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="166">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="165">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="164">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="163">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="162">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="161">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="160">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="159">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4958,80 +5020,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -5157,161 +5219,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="76" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76" t="s">
+      <c r="C38" s="76"/>
+      <c r="D38" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76" t="s">
+      <c r="C39" s="76"/>
+      <c r="D39" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76" t="s">
+      <c r="C40" s="76"/>
+      <c r="D40" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76" t="s">
+      <c r="C41" s="76"/>
+      <c r="D41" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="86" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="76" t="s">
+      <c r="E42" s="80"/>
+      <c r="F42" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76" t="s">
+      <c r="G42" s="77"/>
+      <c r="H42" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76" t="s">
+      <c r="C43" s="76"/>
+      <c r="D43" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="90">
+      <c r="C44" s="76"/>
+      <c r="D44" s="78">
         <v>42506</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="76" t="s">
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="90">
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="78">
         <v>42506</v>
       </c>
-      <c r="K44" s="87"/>
+      <c r="K44" s="80"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -5362,35 +5424,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -5441,6 +5503,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -5449,25 +5530,6 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5477,10 +5539,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5491,52 +5553,55 @@
     <col min="4" max="4" width="22.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="15"/>
-    <col min="15" max="17" width="9.140625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="62.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="15"/>
+    <col min="16" max="18" width="9.140625" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="98"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="97"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -5544,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>2</v>
@@ -5559,324 +5624,307 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="L3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="17">
+        <v>63</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="17">
         <v>42726</v>
       </c>
-      <c r="K4" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="73" t="str">
-        <f>IF(K4=I4,"Coerente",(IF(K4="Non verificato","Non applicabile","Non coerente")))</f>
+      <c r="L4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="72" t="str">
+        <f>IF(L4=J4,"Coerente",(IF(L4="Non verificato","Non applicabile","Non coerente")))</f>
         <v>Non applicabile</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="17">
+        <v>64</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="119">
+        <v>78247453</v>
+      </c>
+      <c r="I5" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="17">
         <v>42726</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="17">
+        <v>65</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="17">
         <v>42726</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+    </row>
+    <row r="7" spans="1:18" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="17">
+        <v>66</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="119">
+        <v>78425618</v>
+      </c>
+      <c r="I7" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="17">
         <v>42726</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="17">
+        <v>42726</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
+    </row>
+    <row r="9" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="17">
-        <v>42726</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-    </row>
-    <row r="9" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-    </row>
-    <row r="10" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="17">
+        <v>42671</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13">
-        <v>6</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="68" t="s">
+      <c r="F10" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="H10" s="114"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="17">
         <v>42671</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="13"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13">
-        <v>7</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="17">
+        <v>74</v>
+      </c>
+      <c r="H11" s="118"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="17">
         <v>42671</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="17">
-        <v>42671</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="18"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H10:H12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
-      <formula1>$P$3:$P$3</formula1>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576">
+      <formula1>$Q$3:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576">
-      <formula1>$Q$3:$Q$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576">
+      <formula1>$R$3:$R$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5916,40 +5964,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
+      <c r="G1" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="G1" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="110"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="106"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="113"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="109"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
@@ -5975,13 +6023,13 @@
       <c r="E4" s="24"/>
       <c r="G4" s="26"/>
       <c r="H4" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="52" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>51</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
@@ -5991,11 +6039,11 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="24"/>
       <c r="G5" s="26"/>
       <c r="H5" s="53">
@@ -6003,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="54">
-        <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
+        <f>COUNTIF('Lista dei casi di test'!M:M,"Coerente")+COUNTIF('Lista dei casi di test'!M:M,"Non coerente")</f>
         <v>0</v>
       </c>
       <c r="J5" s="67">
@@ -6018,9 +6066,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="24"/>
       <c r="G6" s="26"/>
       <c r="H6" s="48"/>
@@ -6035,13 +6083,13 @@
     <row r="7" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="24"/>
       <c r="G7" s="26"/>
@@ -6057,7 +6105,7 @@
     <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="35">
@@ -6066,23 +6114,23 @@
       </c>
       <c r="E8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
+      <c r="H8" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
+      <c r="L8" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="99"/>
+      <c r="N8" s="100"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="44">
         <v>8</v>
@@ -6093,19 +6141,19 @@
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="45">
         <v>8</v>
@@ -6114,23 +6162,23 @@
       <c r="E10" s="24"/>
       <c r="G10" s="39"/>
       <c r="H10" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="24"/>
     </row>
@@ -6142,7 +6190,7 @@
       <c r="E11" s="24"/>
       <c r="G11" s="39"/>
       <c r="H11" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <v>1</v>
@@ -6153,7 +6201,7 @@
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="35" t="e">
@@ -6170,7 +6218,7 @@
       <c r="E12" s="24"/>
       <c r="G12" s="39"/>
       <c r="H12" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="35">
@@ -6179,7 +6227,7 @@
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="35" t="e">
@@ -6196,7 +6244,7 @@
       <c r="E13" s="24"/>
       <c r="G13" s="39"/>
       <c r="H13" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="35">
@@ -6205,7 +6253,7 @@
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="42"/>
       <c r="N13" s="32"/>
@@ -6219,7 +6267,7 @@
       <c r="E14" s="24"/>
       <c r="G14" s="26"/>
       <c r="H14" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="42">
         <v>1</v>
@@ -6476,7 +6524,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="202" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6600,18 +6648,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6631,14 +6679,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6651,4 +6691,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test_AQR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test_AQR.xlsx
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -558,7 +558,11 @@
 86511100
 78300922
 78297134
-78356868</t>
+78356868
+90623834
+90197710
+83155580
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -568,7 +572,15 @@
 78276761
 91605514
 78375153
-78400570</t>
+78400570
+83158481
+83156992
+83156450
+88665614
+83154110
+90765232
+87513202
+</t>
   </si>
 </sst>
 </file>
@@ -1360,51 +1372,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,6 +1447,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,30 +1505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,499 +1515,6 @@
   </cellStyles>
   <dxfs count="203">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -2349,6 +1868,494 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color theme="3"/>
@@ -3188,6 +3195,11 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3251,9 +3263,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42747.669578240741" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42783.482811226851" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:M1048576" sheet="Lista dei casi di test"/>
+    <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Applicazione" numFmtId="0">
@@ -3277,7 +3289,67 @@
     <cacheField name="Esito atteso" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
+    <cacheField name="SNDG - segment CORPORATE" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="78247453" maxValue="78425618"/>
+    </cacheField>
+    <cacheField name="SNDG - segment RETAIL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="Ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-28T00:00:00" maxDate="2016-12-23T00:00:00"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42783.48281134259" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:M1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SNDG - segment CORPORATE" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="78247453" maxValue="78425618"/>
+    </cacheField>
+    <cacheField name="SNDG - segment RETAIL" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Stato test" numFmtId="0">
@@ -3311,62 +3383,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42747.669579861111" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="14">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="Ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-10-28T00:00:00" maxDate="2016-12-23T00:00:00"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
   <r>
     <m/>
     <n v="1"/>
@@ -3375,7 +3393,209 @@
     <s v="Indicator 221 - Past due public creditors / employees"/>
     <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
+    <s v="86511100_x000a_78297134"/>
+    <s v="78276761_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78356193"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <s v="Non verificato"/>
+  </r>
+  <r>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <s v="Indicator 222 - Collateral Value Decrease"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <n v="78247453"/>
+    <s v="78276761_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78424764_x000a_83713674"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <s v="Indicator 223 - Delta Cashflow"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <s v="78234149_x000a_78301578"/>
+    <s v="78276761_x000a_78400570_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78424764"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <s v="Indicator 224 - Covenant Breach"/>
+    <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <n v="78425618"/>
+    <s v="78400570_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78356193_x000a_78424764_x000a_78426070"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <s v="Indicator 225 - Bond Trade Suspended"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <s v="87986803_x000a_78300922_x000a_78356868"/>
+    <s v="78276761_x000a_78400570_x000a_91605514_x000a_78375153_x000a_78424764"/>
+    <x v="0"/>
+    <d v="2016-12-22T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <s v="BR15"/>
+    <s v="ind_221 = 1"/>
+    <s v="accensione della BR 15"/>
+    <s v="_x000a_87986803_x000a_86511100_x000a_78300922_x000a_78297134_x000a_78356868"/>
+    <s v="_x000a_90890463_x000a_78356193_x000a_78424764_x000a_78276761_x000a_91605514_x000a_78375153_x000a_78400570"/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <s v="BR16"/>
+    <s v="ind_225 = 1"/>
+    <s v="accensione della BR 16"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <s v="ECCEZIONE_1"/>
+    <s v="BR15 = 1 or BR16 = 1"/>
+    <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <d v="2016-10-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="Indicator 221 - Past due public creditors / employees"/>
+    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
+    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
+    <s v="86511100_x000a_78297134"/>
+    <s v="78276761_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78356193"/>
     <s v="Ok"/>
     <d v="2016-12-22T00:00:00"/>
     <x v="0"/>
@@ -3389,7 +3609,8 @@
     <s v="Indicator 222 - Collateral Value Decrease"/>
     <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
+    <n v="78247453"/>
+    <s v="78276761_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78424764_x000a_83713674"/>
     <s v="Ok"/>
     <d v="2016-12-22T00:00:00"/>
     <x v="1"/>
@@ -3403,7 +3624,8 @@
     <s v="Indicator 223 - Delta Cashflow"/>
     <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
+    <s v="78234149_x000a_78301578"/>
+    <s v="78276761_x000a_78400570_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78424764"/>
     <s v="Ok"/>
     <d v="2016-12-22T00:00:00"/>
     <x v="1"/>
@@ -3417,7 +3639,8 @@
     <s v="Indicator 224 - Covenant Breach"/>
     <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
+    <n v="78425618"/>
+    <s v="78400570_x000a_90890463_x000a_91605514_x000a_78375153_x000a_78356193_x000a_78424764_x000a_78426070"/>
     <s v="Ok"/>
     <d v="2016-12-22T00:00:00"/>
     <x v="1"/>
@@ -3431,7 +3654,8 @@
     <s v="Indicator 225 - Bond Trade Suspended"/>
     <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
     <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
+    <s v="87986803_x000a_78300922_x000a_78356868"/>
+    <s v="78276761_x000a_78400570_x000a_91605514_x000a_78375153_x000a_78424764"/>
     <s v="Ok"/>
     <d v="2016-12-22T00:00:00"/>
     <x v="1"/>
@@ -3439,27 +3663,14 @@
   </r>
   <r>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
     <n v="6"/>
     <m/>
     <m/>
     <s v="BR15"/>
     <s v="ind_221 = 1"/>
     <s v="accensione della BR 15"/>
-    <s v="SNDG:_x000a_0000000090890463_x000a_0000000078356193_x000a_0000000078424764_x000a_0000000078276761_x000a_0000000091605514_x000a_0000000078375153_x000a_0000000078400570"/>
+    <s v="_x000a_87986803_x000a_86511100_x000a_78300922_x000a_78297134_x000a_78356868"/>
+    <s v="_x000a_90890463_x000a_78356193_x000a_78424764_x000a_78276761_x000a_91605514_x000a_78375153_x000a_78400570"/>
     <s v="Ok"/>
     <d v="2016-10-28T00:00:00"/>
     <x v="1"/>
@@ -3474,6 +3685,7 @@
     <s v="ind_225 = 1"/>
     <s v="accensione della BR 16"/>
     <m/>
+    <m/>
     <s v="Ok"/>
     <d v="2016-10-28T00:00:00"/>
     <x v="1"/>
@@ -3488,6 +3700,7 @@
     <s v="BR15 = 1 or BR16 = 1"/>
     <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
     <m/>
+    <m/>
     <s v="Ok"/>
     <d v="2016-10-28T00:00:00"/>
     <x v="1"/>
@@ -3504,6 +3717,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -3518,6 +3732,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -3532,6 +3747,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -3546,6 +3762,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -3560,6 +3777,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -3574,80 +3792,12 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
     <m/>
     <m/>
     <m/>
@@ -3664,197 +3814,10 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
-  <r>
-    <m/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <s v="Indicator 221 - Past due public creditors / employees"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di un past due verso impiegati e creditori pubblici;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo è expert-based, per cui è affidato interamente al giudizio del gestore  (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <s v="Non verificato"/>
-  </r>
-  <r>
-    <m/>
-    <n v="2"/>
-    <m/>
-    <m/>
-    <s v="Indicator 222 - Collateral Value Decrease"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• Il flag è valorizzato a 1 se si verifica la presenza di una significativa riduzione del valore del collateral qualora la vendita dello stesso sia necessaria per il rimborso del finanziamento;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="3"/>
-    <m/>
-    <m/>
-    <s v="Indicator 223 - Delta Cashflow"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica un decremento significativo nei flussi di cassa futuri previsionali;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• La materialità dell’importo / percentuale della riduzione è expert-based, per cui è affidato interamente al giudizio del gestore (CRMD non definisce al momento alcuna linea guida);_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <s v="Indicator 224 - Covenant Breach"/>
-    <s v="• Per il singolo SNDG l’indicatore ha il seguente dominio (seguirà traduzione): _x000a_o COVENANT ROTTO NON ANCORA SANATO_x000a_o COVENANT IN TENSIONE_x000a_o COVENANT SCADUTO E NON MONITORATO _x000a_o COVENANT NON RISPETTATO E NON SANATO _x000a__x000a_• Lasciamo all’IT la scelta tra le seguenti modalità di inserimento a cruscotto e nel repository dei dati delle informazioni relative a questo trigger_x000a_o MODALITA’ 1_x000a_A cruscotto viene evidenziata una domanda a risposta multipla sui covenant;_x000a_Nel datamart EWS verrà storicizzata un’unica variabile valorizzata con un codice (ad. es. 01 = covenant rotto non ancora sanato, 02 = etc….);_x000a__x000a_o MODALITA’ 2_x000a_A cruscotto vengono evidenziate 4 domande afferenti i covenant; _x000a_Nel datamart EWS verranno storicizzate 4 variabili flag, il cui valore può essere pari a 0 o 1, corrispondenti a ciascuna domanda del cruscotto._x000a__x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è attualmente manuale e non sono possibili casi di errore, ma nelle successive versioni dovranno essere previsti dei controlli._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <s v="Indicator 225 - Bond Trade Suspended"/>
-    <s v="• Per il singolo SNDG il campo può assumere valore 0 o 1 a seconda che venga attivato o meno il flag sul cruscotto;_x000a_• L’indicatore è valorizzato a 1 se si verifica una sospensione temporanea alla negoziazione di un bond per momentanea difficoltà della controparte emittente;_x000a_• L’alimentazione è manuale attraverso l’applicativo “cruscotto” a cura del gestore della posizione;_x000a_• L’indicatore è manuale e non sono previsti possibili casi di errore._x000a_"/>
-    <s v=" - porting variabile_x000a__x000a_ - ERRORE - considerat i seguendi casi:_x000a_indicatore è missing -&gt; missing"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-12-22T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="6"/>
-    <m/>
-    <m/>
-    <s v="BR15"/>
-    <s v="ind_221 = 1"/>
-    <s v="accensione della BR 15"/>
-    <s v="SNDG:_x000a_0000000090890463_x000a_0000000078356193_x000a_0000000078424764_x000a_0000000078276761_x000a_0000000091605514_x000a_0000000078375153_x000a_0000000078400570"/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="7"/>
-    <m/>
-    <m/>
-    <s v="BR16"/>
-    <s v="ind_225 = 1"/>
-    <s v="accensione della BR 16"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="8"/>
-    <m/>
-    <m/>
-    <s v="ECCEZIONE_1"/>
-    <s v="BR15 = 1 or BR16 = 1"/>
-    <s v="accensione ECCEZIONE_1 e assegnamento colore LIGHT_BLUE"/>
-    <m/>
-    <x v="0"/>
-    <d v="2016-10-28T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -3862,7 +3825,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow">
       <items count="6">
         <item h="1" m="1" x="2"/>
@@ -3877,7 +3841,7 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="8"/>
+    <field x="9"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -3897,52 +3861,49 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="145">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
     <format dxfId="144">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="143">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="142">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="141">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="140">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="139">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="8" count="0"/>
+          <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="136">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="8" count="0"/>
+          <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
     <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="134">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="133">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="133">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
@@ -3954,103 +3915,106 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="129">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="128">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="127">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="126">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="8" count="0"/>
+          <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="121">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="119">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="8" count="0"/>
+          <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="114">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="112">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="8" count="0"/>
+          <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="107">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="105">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="8" count="0"/>
+          <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4064,9 +4028,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -4074,7 +4038,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow">
@@ -4089,7 +4054,7 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="11"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -4112,107 +4077,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="174">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="173">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="172">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="171">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="170">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="10" count="0"/>
+          <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="165">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="164">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="164">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="163">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="10" count="0"/>
+          <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="158">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="157">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="156">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="10" count="0"/>
+          <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="151">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="150">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="149">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="10" count="0"/>
+          <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4226,9 +4191,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -4236,7 +4201,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -4251,7 +4217,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="11"/>
+    <field x="12"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -4271,96 +4237,96 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="202">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="201">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="200">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="199">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="198">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="197">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="196">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="194">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="11" count="0"/>
+          <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="191">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="190">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="188">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="187">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="187">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="185">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="184">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="184">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="182">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="181">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="179">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="178">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="11" count="0"/>
+          <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="176">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5020,80 +4986,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -5219,161 +5185,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
+      <c r="C40" s="77"/>
+      <c r="D40" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="81" t="s">
+      <c r="C42" s="77"/>
+      <c r="D42" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="89"/>
+      <c r="F42" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77" t="s">
+      <c r="G42" s="78"/>
+      <c r="H42" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77" t="s">
+      <c r="C43" s="77"/>
+      <c r="D43" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="78">
+      <c r="C44" s="77"/>
+      <c r="D44" s="92">
         <v>42506</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="77" t="s">
+      <c r="E44" s="93"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="78">
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="92">
         <v>42506</v>
       </c>
-      <c r="K44" s="80"/>
+      <c r="K44" s="89"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -5424,35 +5390,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -5503,25 +5469,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -5530,6 +5477,25 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5541,8 +5507,8 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,40 +5532,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -5664,10 +5630,10 @@
       <c r="G4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="76" t="s">
         <v>79</v>
       </c>
       <c r="J4" s="13" t="s">
@@ -5700,10 +5666,10 @@
       <c r="G5" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="119">
+      <c r="H5" s="75">
         <v>78247453</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="76" t="s">
         <v>81</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -5731,10 +5697,10 @@
       <c r="G6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="76" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="13" t="s">
@@ -5762,10 +5728,10 @@
       <c r="G7" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="75">
         <v>78425618</v>
       </c>
-      <c r="I7" s="120" t="s">
+      <c r="I7" s="76" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -5793,10 +5759,10 @@
       <c r="G8" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="I8" s="76" t="s">
         <v>85</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -5824,10 +5790,10 @@
       <c r="G9" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="101" t="s">
         <v>88</v>
       </c>
       <c r="J9" s="13" t="s">
@@ -5852,11 +5818,11 @@
       <c r="F10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="114"/>
-      <c r="I10" s="116"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="13" t="s">
         <v>36</v>
       </c>
@@ -5866,7 +5832,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13">
         <v>8</v>
@@ -5882,8 +5848,8 @@
       <c r="G11" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="13" t="s">
         <v>36</v>
       </c>
@@ -5919,7 +5885,7 @@
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="H9:H11"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576">
       <formula1>$Q$3:$Q$3</formula1>
     </dataValidation>
@@ -5964,40 +5930,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="G1" s="104" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="G1" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
@@ -6039,11 +6005,11 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="24"/>
       <c r="G5" s="26"/>
       <c r="H5" s="53">
@@ -6066,9 +6032,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="24"/>
       <c r="G6" s="26"/>
       <c r="H6" s="48"/>
@@ -6114,17 +6080,17 @@
       </c>
       <c r="E8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="98" t="s">
+      <c r="L8" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6141,13 +6107,13 @@
       </c>
       <c r="E9" s="24"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="120"/>
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6524,7 +6490,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6534,6 +6500,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -6647,12 +6619,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6663,6 +6629,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6678,21 +6659,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
   <ds:schemaRefs>
